--- a/res/testcase/statisticalAnalysis/tollcollectorReport.xlsx
+++ b/res/testcase/statisticalAnalysis/tollcollectorReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10365" activeTab="2"/>
+    <workbookView windowWidth="21600" windowHeight="9765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="126">
   <si>
     <t>动作</t>
   </si>
@@ -342,13 +342,22 @@
     <t>8</t>
   </si>
   <si>
+    <t>点击搜索按钮</t>
+  </si>
+  <si>
+    <t>TollcollectorReportPage.搜索按钮</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>TollcollectorReportPage.记录列表</t>
   </si>
   <si>
     <t>$全局变量.停车场名称</t>
   </si>
   <si>
-    <t>9</t>
+    <t>10</t>
   </si>
   <si>
     <t>2筛选进出场报表界面</t>
@@ -366,12 +375,6 @@
     <t>TollcollectorReportPage.最近三个月</t>
   </si>
   <si>
-    <t>点击搜索按钮</t>
-  </si>
-  <si>
-    <t>TollcollectorReportPage.搜索按钮</t>
-  </si>
-  <si>
     <t>点击导出</t>
   </si>
   <si>
@@ -382,9 +385,6 @@
   </si>
   <si>
     <t>TollcollectorReportPage.确认-提示</t>
-  </si>
-  <si>
-    <t>10</t>
   </si>
   <si>
     <t>TollcollectorReportPage.操作成功-提示</t>
@@ -1809,10 +1809,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1949,41 +1949,59 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" s="5" customFormat="1" ht="32" customHeight="1" spans="1:5">
+    <row r="9" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="32" customHeight="1" spans="1:5">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="32" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="32" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>110</v>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C5 C10 C2:C4 C6:C9 C11:C1048576">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
+      <formula1>[1]Actions!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C5 C10 C11 C2:C4 C6:C8 C12:C1048576">
       <formula1>[1]Actions!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -1998,8 +2016,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2108,13 +2126,13 @@
         <v>96</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2123,13 +2141,13 @@
         <v>99</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -2138,13 +2156,13 @@
         <v>102</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -2153,13 +2171,13 @@
         <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -2168,19 +2186,19 @@
         <v>109</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>69</v>
